--- a/Pubmed/CCHF/ReferenceSummary_Dec11.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Dec11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C8216-2180-F348-BB82-01873F0EB6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB857F-6A03-C74D-B374-F1877E4A7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="680" windowWidth="37760" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="6980" windowWidth="37760" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="1235">
   <si>
     <t>Title</t>
   </si>
@@ -4360,14 +4360,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L263" sqref="L263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4476,7 +4476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>92</v>
       </c>
@@ -5368,7 +5368,9 @@
       <c r="K16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M16" s="2" t="s">
         <v>26</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>103</v>
       </c>
@@ -5464,7 +5466,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
@@ -5531,7 +5533,7 @@
       </c>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
@@ -5600,7 +5602,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -5667,7 +5669,7 @@
       </c>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -5732,7 +5734,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
@@ -5801,7 +5803,7 @@
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -5870,7 +5872,7 @@
       </c>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
@@ -5939,7 +5941,7 @@
       </c>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -6008,7 +6010,7 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>153</v>
       </c>
@@ -6073,7 +6075,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>159</v>
       </c>
@@ -6140,7 +6142,7 @@
       </c>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>164</v>
       </c>
@@ -6203,7 +6205,7 @@
       </c>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
@@ -6270,7 +6272,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>174</v>
       </c>
@@ -6339,7 +6341,7 @@
       </c>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -6410,7 +6412,7 @@
       </c>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
@@ -6479,7 +6481,7 @@
       </c>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>189</v>
       </c>
@@ -6548,7 +6550,7 @@
       </c>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>195</v>
       </c>
@@ -6613,7 +6615,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>199</v>
       </c>
@@ -6678,7 +6680,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>204</v>
       </c>
@@ -6747,7 +6749,7 @@
       </c>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>209</v>
       </c>
@@ -6812,7 +6814,7 @@
       </c>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>215</v>
       </c>
@@ -6879,7 +6881,7 @@
       </c>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -6938,7 +6940,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>220</v>
       </c>
@@ -7005,7 +7007,7 @@
       </c>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>224</v>
       </c>
@@ -7068,7 +7070,7 @@
       </c>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
@@ -7133,7 +7135,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>237</v>
       </c>
@@ -7202,7 +7204,7 @@
       </c>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>243</v>
       </c>
@@ -7289,7 +7291,7 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
     </row>
-    <row r="45" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>247</v>
       </c>
@@ -7358,7 +7360,7 @@
       </c>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>253</v>
       </c>
@@ -7427,7 +7429,7 @@
       </c>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>259</v>
       </c>
@@ -7496,7 +7498,7 @@
       </c>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>263</v>
       </c>
@@ -7565,7 +7567,7 @@
       </c>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>268</v>
       </c>
@@ -7634,7 +7636,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>273</v>
       </c>
@@ -7695,7 +7697,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -7764,7 +7766,7 @@
       </c>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>281</v>
       </c>
@@ -7831,7 +7833,7 @@
       </c>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>285</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>290</v>
       </c>
@@ -7971,7 +7973,7 @@
       </c>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>293</v>
       </c>
@@ -8040,7 +8042,7 @@
       </c>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>297</v>
       </c>
@@ -8109,7 +8111,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>301</v>
       </c>
@@ -8176,7 +8178,7 @@
       </c>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>305</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>310</v>
       </c>
@@ -8294,7 +8296,7 @@
       </c>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>313</v>
       </c>
@@ -8365,7 +8367,7 @@
       </c>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>317</v>
       </c>
@@ -8430,7 +8432,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>320</v>
       </c>
@@ -8499,7 +8501,7 @@
       </c>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>325</v>
       </c>
@@ -8554,7 +8556,7 @@
       </c>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>329</v>
       </c>
@@ -8623,7 +8625,7 @@
       </c>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>335</v>
       </c>
@@ -8686,7 +8688,7 @@
       </c>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>338</v>
       </c>
@@ -8755,7 +8757,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>343</v>
       </c>
@@ -8822,7 +8824,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>349</v>
       </c>
@@ -8885,7 +8887,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>353</v>
       </c>
@@ -8944,7 +8946,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>357</v>
       </c>
@@ -9009,7 +9011,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>362</v>
       </c>
@@ -9064,7 +9066,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>364</v>
       </c>
@@ -9129,7 +9131,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>369</v>
       </c>
@@ -9194,7 +9196,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>372</v>
       </c>
@@ -9261,7 +9263,7 @@
       </c>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>376</v>
       </c>
@@ -9326,7 +9328,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>380</v>
       </c>
@@ -9387,7 +9389,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>383</v>
       </c>
@@ -9456,7 +9458,7 @@
       </c>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>387</v>
       </c>
@@ -9523,7 +9525,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>392</v>
       </c>
@@ -9622,7 +9624,9 @@
       <c r="K80" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M80" s="2" t="s">
         <v>26</v>
       </c>
@@ -9649,7 +9653,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>401</v>
       </c>
@@ -9714,7 +9718,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>406</v>
       </c>
@@ -9781,7 +9785,7 @@
       </c>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>410</v>
       </c>
@@ -9846,7 +9850,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>413</v>
       </c>
@@ -9915,7 +9919,7 @@
       </c>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>419</v>
       </c>
@@ -9984,7 +9988,7 @@
       </c>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>422</v>
       </c>
@@ -10051,7 +10055,7 @@
       </c>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>427</v>
       </c>
@@ -10118,7 +10122,7 @@
       </c>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>431</v>
       </c>
@@ -10187,7 +10191,7 @@
       </c>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>435</v>
       </c>
@@ -10254,7 +10258,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>439</v>
       </c>
@@ -10321,7 +10325,7 @@
       </c>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>443</v>
       </c>
@@ -10388,7 +10392,7 @@
       </c>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>446</v>
       </c>
@@ -10481,7 +10485,7 @@
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
     </row>
-    <row r="93" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>449</v>
       </c>
@@ -10542,7 +10546,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>452</v>
       </c>
@@ -10611,7 +10615,7 @@
       </c>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>458</v>
       </c>
@@ -10672,7 +10676,7 @@
       </c>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>460</v>
       </c>
@@ -10741,7 +10745,7 @@
       </c>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>466</v>
       </c>
@@ -10802,7 +10806,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>468</v>
       </c>
@@ -10855,7 +10859,7 @@
       </c>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>471</v>
       </c>
@@ -10924,7 +10928,7 @@
       </c>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>475</v>
       </c>
@@ -10987,7 +10991,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>482</v>
       </c>
@@ -11054,7 +11058,7 @@
       </c>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>487</v>
       </c>
@@ -11123,7 +11127,7 @@
       </c>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>493</v>
       </c>
@@ -11192,7 +11196,7 @@
       </c>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>498</v>
       </c>
@@ -11261,7 +11265,7 @@
       </c>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>501</v>
       </c>
@@ -11326,7 +11330,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>504</v>
       </c>
@@ -11381,7 +11385,7 @@
       </c>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>507</v>
       </c>
@@ -11450,7 +11454,7 @@
       </c>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>510</v>
       </c>
@@ -11505,7 +11509,7 @@
       </c>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>512</v>
       </c>
@@ -11568,7 +11572,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>516</v>
       </c>
@@ -11633,7 +11637,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>519</v>
       </c>
@@ -11728,7 +11732,7 @@
       <c r="AV111" s="1"/>
       <c r="AW111" s="1"/>
     </row>
-    <row r="112" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>529</v>
       </c>
@@ -11781,7 +11785,7 @@
       </c>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>532</v>
       </c>
@@ -11846,7 +11850,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>535</v>
       </c>
@@ -11913,7 +11917,7 @@
       </c>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>538</v>
       </c>
@@ -11982,7 +11986,7 @@
       </c>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>542</v>
       </c>
@@ -12039,7 +12043,7 @@
       </c>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>545</v>
       </c>
@@ -12106,7 +12110,7 @@
       </c>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>548</v>
       </c>
@@ -12161,7 +12165,7 @@
       </c>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>551</v>
       </c>
@@ -12232,7 +12236,7 @@
       </c>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>558</v>
       </c>
@@ -12301,7 +12305,7 @@
       </c>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>562</v>
       </c>
@@ -12354,7 +12358,7 @@
       </c>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>564</v>
       </c>
@@ -12423,7 +12427,7 @@
       </c>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>568</v>
       </c>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>571</v>
       </c>
@@ -12549,7 +12553,7 @@
       </c>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>574</v>
       </c>
@@ -12614,7 +12618,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>580</v>
       </c>
@@ -12683,7 +12687,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>588</v>
       </c>
@@ -12750,7 +12754,7 @@
       </c>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>591</v>
       </c>
@@ -12819,7 +12823,7 @@
       </c>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>596</v>
       </c>
@@ -12888,7 +12892,7 @@
       </c>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>600</v>
       </c>
@@ -12955,7 +12959,7 @@
       </c>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>604</v>
       </c>
@@ -13014,7 +13018,7 @@
       </c>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>607</v>
       </c>
@@ -13113,7 +13117,9 @@
       <c r="K133" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L133" s="2"/>
+      <c r="L133" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M133" s="2" t="s">
         <v>26</v>
       </c>
@@ -13146,7 +13152,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>618</v>
       </c>
@@ -13199,7 +13205,7 @@
       </c>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>621</v>
       </c>
@@ -13264,7 +13270,7 @@
       </c>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>625</v>
       </c>
@@ -13357,7 +13363,7 @@
       <c r="AV136" s="1"/>
       <c r="AW136" s="1"/>
     </row>
-    <row r="137" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>630</v>
       </c>
@@ -13424,7 +13430,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>633</v>
       </c>
@@ -13479,7 +13485,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>636</v>
       </c>
@@ -13548,7 +13554,7 @@
       </c>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>639</v>
       </c>
@@ -13615,7 +13621,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>644</v>
       </c>
@@ -13684,7 +13690,7 @@
       </c>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>648</v>
       </c>
@@ -13745,7 +13751,7 @@
       </c>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>651</v>
       </c>
@@ -13814,7 +13820,7 @@
       </c>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>658</v>
       </c>
@@ -13877,7 +13883,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>663</v>
       </c>
@@ -13946,7 +13952,7 @@
       </c>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>668</v>
       </c>
@@ -14015,7 +14021,7 @@
       </c>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>672</v>
       </c>
@@ -14082,7 +14088,7 @@
       </c>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>679</v>
       </c>
@@ -14149,7 +14155,7 @@
       </c>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>683</v>
       </c>
@@ -14216,7 +14222,7 @@
       </c>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>686</v>
       </c>
@@ -14283,7 +14289,7 @@
       </c>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>690</v>
       </c>
@@ -14348,7 +14354,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>694</v>
       </c>
@@ -14411,7 +14417,7 @@
       </c>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>699</v>
       </c>
@@ -14466,7 +14472,7 @@
       </c>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>701</v>
       </c>
@@ -14527,7 +14533,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>704</v>
       </c>
@@ -14590,7 +14596,7 @@
       </c>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>709</v>
       </c>
@@ -14659,7 +14665,7 @@
       </c>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>713</v>
       </c>
@@ -14728,7 +14734,7 @@
       </c>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>719</v>
       </c>
@@ -14797,7 +14803,7 @@
       </c>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>723</v>
       </c>
@@ -14864,7 +14870,7 @@
       </c>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>729</v>
       </c>
@@ -14933,7 +14939,7 @@
       </c>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>734</v>
       </c>
@@ -15000,7 +15006,7 @@
       </c>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>738</v>
       </c>
@@ -15053,7 +15059,7 @@
       </c>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>740</v>
       </c>
@@ -15122,7 +15128,7 @@
       </c>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>747</v>
       </c>
@@ -15187,7 +15193,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>750</v>
       </c>
@@ -15242,7 +15248,7 @@
       </c>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>754</v>
       </c>
@@ -15309,7 +15315,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>758</v>
       </c>
@@ -15368,7 +15374,7 @@
       </c>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>764</v>
       </c>
@@ -15421,7 +15427,7 @@
       </c>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>766</v>
       </c>
@@ -15492,7 +15498,7 @@
       </c>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>772</v>
       </c>
@@ -15561,7 +15567,7 @@
       </c>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>777</v>
       </c>
@@ -15628,7 +15634,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>782</v>
       </c>
@@ -15695,7 +15701,7 @@
       </c>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>786</v>
       </c>
@@ -15748,7 +15754,7 @@
       </c>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>790</v>
       </c>
@@ -15815,7 +15821,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>794</v>
       </c>
@@ -15886,7 +15892,7 @@
       </c>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>801</v>
       </c>
@@ -15955,7 +15961,7 @@
       </c>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>806</v>
       </c>
@@ -16016,7 +16022,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>809</v>
       </c>
@@ -16085,7 +16091,7 @@
       </c>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>815</v>
       </c>
@@ -16146,7 +16152,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>819</v>
       </c>
@@ -16209,7 +16215,7 @@
       </c>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>823</v>
       </c>
@@ -16276,7 +16282,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>829</v>
       </c>
@@ -16345,7 +16351,7 @@
       </c>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>833</v>
       </c>
@@ -16414,7 +16420,7 @@
       </c>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>836</v>
       </c>
@@ -16481,7 +16487,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>839</v>
       </c>
@@ -16548,7 +16554,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>845</v>
       </c>
@@ -16617,7 +16623,7 @@
       </c>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>849</v>
       </c>
@@ -16684,7 +16690,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>854</v>
       </c>
@@ -16745,7 +16751,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>859</v>
       </c>
@@ -16806,7 +16812,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>861</v>
       </c>
@@ -16875,7 +16881,7 @@
       </c>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>866</v>
       </c>
@@ -16944,7 +16950,7 @@
       </c>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>869</v>
       </c>
@@ -17011,7 +17017,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>874</v>
       </c>
@@ -17078,7 +17084,7 @@
       </c>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>878</v>
       </c>
@@ -17147,7 +17153,7 @@
       </c>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>882</v>
       </c>
@@ -17216,7 +17222,7 @@
       </c>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>889</v>
       </c>
@@ -17283,7 +17289,7 @@
       </c>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>892</v>
       </c>
@@ -17352,7 +17358,7 @@
       </c>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>898</v>
       </c>
@@ -17421,7 +17427,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>905</v>
       </c>
@@ -17488,7 +17494,7 @@
       </c>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>908</v>
       </c>
@@ -17557,7 +17563,7 @@
       </c>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>911</v>
       </c>
@@ -17624,7 +17630,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>915</v>
       </c>
@@ -17685,7 +17691,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>918</v>
       </c>
@@ -17754,7 +17760,7 @@
       </c>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>925</v>
       </c>
@@ -17821,7 +17827,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>930</v>
       </c>
@@ -17882,7 +17888,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>933</v>
       </c>
@@ -17951,7 +17957,7 @@
       </c>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>936</v>
       </c>
@@ -18022,7 +18028,7 @@
       </c>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>941</v>
       </c>
@@ -18087,7 +18093,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>945</v>
       </c>
@@ -18150,7 +18156,7 @@
       </c>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>950</v>
       </c>
@@ -18219,7 +18225,7 @@
       </c>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>955</v>
       </c>
@@ -18288,7 +18294,7 @@
       </c>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>960</v>
       </c>
@@ -18355,7 +18361,7 @@
       </c>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>964</v>
       </c>
@@ -18420,7 +18426,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>970</v>
       </c>
@@ -18475,7 +18481,7 @@
       </c>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>972</v>
       </c>
@@ -18542,7 +18548,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>977</v>
       </c>
@@ -18611,7 +18617,7 @@
       </c>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>982</v>
       </c>
@@ -18676,7 +18682,7 @@
       </c>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>988</v>
       </c>
@@ -18729,7 +18735,7 @@
       </c>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>991</v>
       </c>
@@ -18798,7 +18804,7 @@
       </c>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>995</v>
       </c>
@@ -18859,7 +18865,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>999</v>
       </c>
@@ -18926,7 +18932,7 @@
       </c>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1002</v>
       </c>
@@ -18981,7 +18987,7 @@
       </c>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>1006</v>
       </c>
@@ -19040,7 +19046,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1009</v>
       </c>
@@ -19107,7 +19113,7 @@
       </c>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1011</v>
       </c>
@@ -19170,7 +19176,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>1014</v>
       </c>
@@ -19233,7 +19239,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1018</v>
       </c>
@@ -19300,7 +19306,7 @@
       </c>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>1020</v>
       </c>
@@ -19369,7 +19375,7 @@
       </c>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1023</v>
       </c>
@@ -19438,7 +19444,7 @@
       </c>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>1029</v>
       </c>
@@ -19505,7 +19511,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>1033</v>
       </c>
@@ -19572,7 +19578,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>1040</v>
       </c>
@@ -19643,7 +19649,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>1047</v>
       </c>
@@ -19710,7 +19716,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1053</v>
       </c>
@@ -19781,7 +19787,7 @@
       </c>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>1061</v>
       </c>
@@ -19850,7 +19856,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1064</v>
       </c>
@@ -19905,7 +19911,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1067</v>
       </c>
@@ -19972,7 +19978,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>1070</v>
       </c>
@@ -20041,7 +20047,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1076</v>
       </c>
@@ -20106,7 +20112,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1080</v>
       </c>
@@ -20173,7 +20179,7 @@
       </c>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1085</v>
       </c>
@@ -20228,7 +20234,7 @@
       </c>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>1089</v>
       </c>
@@ -20283,7 +20289,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1092</v>
       </c>
@@ -20342,7 +20348,7 @@
       </c>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1096</v>
       </c>
@@ -20409,7 +20415,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>1101</v>
       </c>
@@ -20476,7 +20482,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1106</v>
       </c>
@@ -20543,7 +20549,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1110</v>
       </c>
@@ -20608,7 +20614,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>1113</v>
       </c>
@@ -20675,7 +20681,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>1118</v>
       </c>
@@ -20744,7 +20750,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
         <v>1157</v>
       </c>
@@ -20815,7 +20821,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="251" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
         <v>1163</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="252" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
         <v>1166</v>
       </c>
@@ -20953,7 +20959,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="253" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
         <v>1170</v>
       </c>
@@ -21022,7 +21028,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="254" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
         <v>1174</v>
       </c>
@@ -21093,7 +21099,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="255" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
         <v>1180</v>
       </c>
@@ -21160,7 +21166,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="256" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
         <v>1183</v>
       </c>
@@ -21231,7 +21237,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="257" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
         <v>1190</v>
       </c>
@@ -21300,7 +21306,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="258" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
         <v>1195</v>
       </c>
@@ -21371,7 +21377,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="259" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
         <v>1200</v>
       </c>
@@ -21438,7 +21444,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="260" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
         <v>1206</v>
       </c>
@@ -21499,7 +21505,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="261" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
         <v>1200</v>
       </c>
@@ -21558,7 +21564,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="262" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
         <v>1213</v>
       </c>
@@ -21620,7 +21626,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y262" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y262" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>